--- a/timetabling_GA/results/PS_CT002_HK4/LichHocKy_PS_CT002_HK4.xlsx
+++ b/timetabling_GA/results/PS_CT002_HK4/LichHocKy_PS_CT002_HK4.xlsx
@@ -12,6 +12,16 @@
     <sheet name="Week_3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Week_4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Week_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Week_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Week_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Week_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Week_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Week_10" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Week_11" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Week_12" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Week_13" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Week_14" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Week_15" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -59,7 +69,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -76,6 +86,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFCCCB"/>
         <bgColor rgb="00FFCCCB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BDD7EE"/>
+        <bgColor rgb="00BDD7EE"/>
       </patternFill>
     </fill>
   </fills>
@@ -105,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -129,6 +145,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -496,7 +515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,28 +630,208 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH004
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH012
 (Practice)
 Room: TH1
-Lecturer: GV002</t>
-        </is>
-      </c>
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT3
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT3
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT4
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Practice)
+Room: TH1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -644,13 +843,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,7 +893,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 2 TIMETABLE (20/07/2026 - 26/07/2026)</t>
+          <t>WEEK 10 TIMETABLE (14/09/2026 - 20/09/2026)</t>
         </is>
       </c>
     </row>
@@ -717,43 +916,43 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-20/07</t>
+14/09</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-21/07</t>
+15/09</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-22/07</t>
+16/09</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-23/07</t>
+17/09</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-24/07</t>
+18/09</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-25/07</t>
+19/09</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-26/07</t>
+20/09</t>
         </is>
       </c>
     </row>
@@ -765,7 +964,7 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -774,19 +973,106 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Practice)
-Room: TH1
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT3
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT4
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -798,13 +1084,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -848,7 +1134,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 3 TIMETABLE (27/07/2026 - 02/08/2026)</t>
+          <t>WEEK 11 TIMETABLE (21/09/2026 - 27/09/2026)</t>
         </is>
       </c>
     </row>
@@ -871,43 +1157,43 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-27/07</t>
+21/09</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-28/07</t>
+22/09</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-29/07</t>
+23/09</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-30/07</t>
+24/09</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-31/07</t>
+25/09</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-01/08</t>
+26/09</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-02/08</t>
+27/09</t>
         </is>
       </c>
     </row>
@@ -919,7 +1205,7 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -928,19 +1214,106 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Practice)
-Room: TH1
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT3
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT4
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -952,13 +1325,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1002,7 +1375,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 4 TIMETABLE (03/08/2026 - 09/08/2026)</t>
+          <t>WEEK 12 TIMETABLE (28/09/2026 - 04/10/2026)</t>
         </is>
       </c>
     </row>
@@ -1025,43 +1398,43 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-03/08</t>
+28/09</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-04/08</t>
+29/09</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-05/08</t>
+30/09</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-06/08</t>
+01/10</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-07/08</t>
+02/10</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-08/08</t>
+03/10</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-09/08</t>
+04/10</t>
         </is>
       </c>
     </row>
@@ -1073,7 +1446,7 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -1082,19 +1455,106 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Practice)
-Room: TH1
-Lecturer: GV002</t>
-        </is>
-      </c>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT3
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT4
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1106,13 +1566,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1156,7 +1616,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 5 TIMETABLE (10/08/2026 - 16/08/2026)</t>
+          <t>WEEK 13 TIMETABLE (05/10/2026 - 11/10/2026)</t>
         </is>
       </c>
     </row>
@@ -1179,43 +1639,43 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-10/08</t>
+05/10</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-11/08</t>
+06/10</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-12/08</t>
+07/10</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-13/08</t>
+08/10</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-14/08</t>
+09/10</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-15/08</t>
+10/10</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-16/08</t>
+11/10</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1687,7 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -1236,19 +1696,2904 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH004
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT3
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT4
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>WEEK 14 TIMETABLE (12/10/2026 - 18/10/2026)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Monday
+12/10</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Tuesday
+13/10</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Wednesday
+14/10</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Thursday
+15/10</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Friday
+16/10</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Saturday
+17/10</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Sunday
+18/10</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT3
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT4
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>WEEK 15 TIMETABLE (19/10/2026 - 25/10/2026)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Monday
+19/10</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Tuesday
+20/10</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Wednesday
+21/10</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Thursday
+22/10</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Friday
+23/10</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Saturday
+24/10</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Sunday
+25/10</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT3
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT4
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>WEEK 2 TIMETABLE (20/07/2026 - 26/07/2026)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Monday
+20/07</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Tuesday
+21/07</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Wednesday
+22/07</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Thursday
+23/07</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Friday
+24/07</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Saturday
+25/07</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Sunday
+26/07</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH012
 (Practice)
 Room: TH1
-Lecturer: GV002</t>
-        </is>
-      </c>
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT3
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT4
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT3
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Practice)
+Room: TH1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>WEEK 3 TIMETABLE (27/07/2026 - 02/08/2026)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Monday
+27/07</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Tuesday
+28/07</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Wednesday
+29/07</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Thursday
+30/07</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Friday
+31/07</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Saturday
+01/08</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Sunday
+02/08</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Practice)
+Room: TH1
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT4
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Practice)
+Room: TH1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>WEEK 4 TIMETABLE (03/08/2026 - 09/08/2026)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Monday
+03/08</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Tuesday
+04/08</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Wednesday
+05/08</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Thursday
+06/08</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Friday
+07/08</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Saturday
+08/08</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Sunday
+09/08</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT3
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT4
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Practice)
+Room: TH1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>WEEK 5 TIMETABLE (10/08/2026 - 16/08/2026)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Monday
+10/08</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Tuesday
+11/08</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Wednesday
+12/08</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Thursday
+13/08</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Friday
+14/08</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Saturday
+15/08</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Sunday
+16/08</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT3
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT4
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <t>MH013
+(Practice)
+Room: TH1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>WEEK 6 TIMETABLE (17/08/2026 - 23/08/2026)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Monday
+17/08</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Tuesday
+18/08</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Wednesday
+19/08</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Thursday
+20/08</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Friday
+21/08</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Saturday
+22/08</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Sunday
+23/08</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT3
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT4
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>WEEK 7 TIMETABLE (24/08/2026 - 30/08/2026)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Monday
+24/08</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Tuesday
+25/08</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Wednesday
+26/08</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Thursday
+27/08</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Friday
+28/08</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Saturday
+29/08</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Sunday
+30/08</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT3
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT4
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>WEEK 8 TIMETABLE (31/08/2026 - 06/09/2026)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Monday
+31/08</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Tuesday
+01/09</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Wednesday
+02/09</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Thursday
+03/09</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Friday
+04/09</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Saturday
+05/09</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Sunday
+06/09</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT3
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT4
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>WEEK 9 TIMETABLE (07/09/2026 - 13/09/2026)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Monday
+07/09</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Tuesday
+08/09</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Wednesday
+09/09</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Thursday
+10/09</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Friday
+11/09</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Saturday
+12/09</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Sunday
+13/09</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT3
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH013
+(Theory)
+Room: LT4
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>MH005
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>

--- a/timetabling_GA/results/PS_CT002_HK4/LichHocKy_PS_CT002_HK4.xlsx
+++ b/timetabling_GA/results/PS_CT002_HK4/LichHocKy_PS_CT002_HK4.xlsx
@@ -84,14 +84,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCB"/>
-        <bgColor rgb="00FFCCCB"/>
+        <fgColor rgb="00BDD7EE"/>
+        <bgColor rgb="00BDD7EE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BDD7EE"/>
-        <bgColor rgb="00BDD7EE"/>
+        <fgColor rgb="00FFCCCB"/>
+        <bgColor rgb="00FFCCCB"/>
       </patternFill>
     </fill>
   </fills>
@@ -637,25 +637,18 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Practice)
-Room: TH1
-Lecturer: GV005</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
@@ -675,16 +668,23 @@
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>MH005
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>MH004
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -701,24 +701,17 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Theory)
+Room: LT3
+Lecturer: GV006</t>
         </is>
       </c>
       <c r="J10" s="7" t="inlineStr"/>
@@ -737,26 +730,26 @@
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="9" t="inlineStr">
         <is>
-          <t>MH012
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr"/>
+          <t>MH014
+(Practice)
+Room: TH3
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>MH008
+(Practice)
+Room: TH2
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
@@ -775,23 +768,16 @@
       </c>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Practice)
-Room: TH1
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="G12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>MH003
 (Practice)
 Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H12" s="7" t="inlineStr"/>
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="I12" s="7" t="inlineStr"/>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
@@ -809,25 +795,18 @@
       <c r="C13" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT1
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="H13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I13" s="7" t="inlineStr"/>
       <c r="J13" s="7" t="inlineStr"/>
     </row>
@@ -849,7 +828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -959,7 +938,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -971,16 +950,16 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
@@ -988,7 +967,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1003,13 +982,20 @@
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Theory)
+Room: A101
+Lecturer: GV006</t>
         </is>
       </c>
       <c r="J9" s="7" t="inlineStr"/>
@@ -1017,7 +1003,7 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1032,47 +1018,18 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: A102
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12"/>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1090,7 +1047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1200,7 +1157,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1212,16 +1169,16 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
@@ -1229,7 +1186,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1244,13 +1201,20 @@
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Theory)
+Room: A101
+Lecturer: GV006</t>
         </is>
       </c>
       <c r="J9" s="7" t="inlineStr"/>
@@ -1258,7 +1222,7 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1273,47 +1237,18 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: A102
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12"/>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1331,7 +1266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1441,7 +1376,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1453,16 +1388,16 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
@@ -1470,7 +1405,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1485,13 +1420,20 @@
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Theory)
+Room: A101
+Lecturer: GV006</t>
         </is>
       </c>
       <c r="J9" s="7" t="inlineStr"/>
@@ -1499,7 +1441,7 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1514,47 +1456,18 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: A102
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12"/>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1572,7 +1485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1682,7 +1595,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1694,16 +1607,16 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
@@ -1711,7 +1624,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1726,13 +1639,20 @@
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Theory)
+Room: A101
+Lecturer: GV006</t>
         </is>
       </c>
       <c r="J9" s="7" t="inlineStr"/>
@@ -1740,7 +1660,7 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1755,47 +1675,18 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: A102
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12"/>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1813,7 +1704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1923,7 +1814,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1935,16 +1826,16 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
@@ -1952,7 +1843,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1967,13 +1858,20 @@
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Theory)
+Room: A101
+Lecturer: GV006</t>
         </is>
       </c>
       <c r="J9" s="7" t="inlineStr"/>
@@ -1981,7 +1879,7 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1996,47 +1894,18 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: A102
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12"/>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2054,7 +1923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2164,7 +2033,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2176,16 +2045,16 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
@@ -2193,7 +2062,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2208,13 +2077,20 @@
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Theory)
+Room: A101
+Lecturer: GV006</t>
         </is>
       </c>
       <c r="J9" s="7" t="inlineStr"/>
@@ -2222,7 +2098,7 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -2237,47 +2113,18 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: A102
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12"/>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2295,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2417,25 +2264,18 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH012
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="9" t="inlineStr">
+        <is>
+          <t>MH008
 (Practice)
-Room: TH1
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+Room: TH3
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
@@ -2452,17 +2292,24 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH005
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT3
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>MH004
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
@@ -2470,7 +2317,7 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -2485,13 +2332,20 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Theory)
+Room: A101
+Lecturer: GV006</t>
         </is>
       </c>
       <c r="J10" s="7" t="inlineStr"/>
@@ -2499,7 +2353,7 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -2511,31 +2365,31 @@
         <v>30</v>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>MH014
+(Practice)
+Room: TH1
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="9" t="inlineStr">
         <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="H11" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
-        </is>
-      </c>
+          <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -2548,56 +2402,20 @@
       </c>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Practice)
-Room: TH1
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="G12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I12" s="7" t="inlineStr"/>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="7" t="inlineStr"/>
-      <c r="J13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14"/>
+    <row r="13"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2615,7 +2433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2737,25 +2555,18 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH012
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="9" t="inlineStr">
+        <is>
+          <t>MH008
 (Practice)
-Room: TH1
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+Room: TH3
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
@@ -2772,17 +2583,24 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>MH004
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
@@ -2790,7 +2608,7 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -2805,13 +2623,20 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Theory)
+Room: A101
+Lecturer: GV006</t>
         </is>
       </c>
       <c r="J10" s="7" t="inlineStr"/>
@@ -2819,7 +2644,7 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -2831,24 +2656,31 @@
         <v>30</v>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>MH014
+(Practice)
+Room: TH1
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
-        </is>
-      </c>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -2861,56 +2693,20 @@
       </c>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Practice)
-Room: TH1
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="G12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I12" s="7" t="inlineStr"/>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="7" t="inlineStr"/>
-      <c r="J13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14"/>
+    <row r="13"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2928,7 +2724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3052,16 +2848,16 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="9" t="inlineStr">
+        <is>
+          <t>MH008
+(Practice)
+Room: TH3
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
@@ -3079,13 +2875,20 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="9" t="inlineStr">
         <is>
-          <t>MH005
-(Theory)
-Room: LT2
+          <t>MH004
+(Practice)
+Room: TH3
 Lecturer: GV001</t>
         </is>
       </c>
@@ -3096,7 +2899,7 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -3107,24 +2910,24 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Theory)
+Room: A101
+Lecturer: GV006</t>
         </is>
       </c>
       <c r="J10" s="7" t="inlineStr"/>
@@ -3132,7 +2935,7 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -3144,24 +2947,31 @@
         <v>30</v>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>MH014
+(Practice)
+Room: TH1
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
-        </is>
-      </c>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -3174,56 +2984,20 @@
       </c>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>MH013
-(Practice)
-Room: TH1
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="G12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I12" s="7" t="inlineStr"/>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="7" t="inlineStr"/>
-      <c r="J13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14"/>
+    <row r="13"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -3365,22 +3139,22 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="9" t="inlineStr">
+        <is>
+          <t>MH008
+(Practice)
+Room: TH3
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3391,26 +3165,26 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT4
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT3
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>MH004
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -3430,23 +3204,23 @@
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>MH005
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH003
 (Theory)
 Room: LT2
 Lecturer: GV007</t>
         </is>
       </c>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="I10" s="7" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Theory)
+Room: A101
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -3464,20 +3238,20 @@
         <v>30</v>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>MH013
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>MH014
 (Practice)
 Room: TH1
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>MH005
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>MH003
 (Practice)
-Room: TH2
+Room: TH1
 Lecturer: GV001</t>
         </is>
       </c>
@@ -3499,18 +3273,18 @@
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I12" s="7" t="inlineStr"/>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
@@ -3527,844 +3301,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>WEEK 6 TIMETABLE (17/08/2026 - 23/08/2026)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="40" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Monday
-17/08</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>Tuesday
-18/08</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>Wednesday
-19/08</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>Thursday
-20/08</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>Friday
-21/08</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>Saturday
-22/08</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>Sunday
-23/08</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT1
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="7" t="inlineStr"/>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A2:J2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>WEEK 7 TIMETABLE (24/08/2026 - 30/08/2026)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="40" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Monday
-24/08</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>Tuesday
-25/08</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>Wednesday
-26/08</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>Thursday
-27/08</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>Friday
-28/08</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>Saturday
-29/08</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>Sunday
-30/08</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="7" t="inlineStr"/>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A2:J2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>WEEK 8 TIMETABLE (31/08/2026 - 06/09/2026)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="40" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Monday
-31/08</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>Tuesday
-01/09</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>Wednesday
-02/09</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>Thursday
-03/09</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>Friday
-04/09</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>Saturday
-05/09</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>Sunday
-06/09</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="7" t="inlineStr"/>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A2:J2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4414,7 +3350,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 9 TIMETABLE (07/09/2026 - 13/09/2026)</t>
+          <t>WEEK 6 TIMETABLE (17/08/2026 - 23/08/2026)</t>
         </is>
       </c>
     </row>
@@ -4437,50 +3373,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-07/09</t>
+17/08</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-08/09</t>
+18/08</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-09/09</t>
+19/08</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-10/09</t>
+20/08</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-11/09</t>
+21/08</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-12/09</t>
+22/08</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-13/09</t>
+23/08</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -4492,16 +3428,16 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT3
-Lecturer: GV007</t>
-        </is>
-      </c>
+      <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
@@ -4509,7 +3445,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -4524,13 +3460,20 @@
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>MH013
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Theory)
+Room: A101
+Lecturer: GV006</t>
         </is>
       </c>
       <c r="J9" s="7" t="inlineStr"/>
@@ -4538,7 +3481,7 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -4552,15 +3495,15 @@
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>MH012
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
-        </is>
-      </c>
+      <c r="G10" s="9" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
@@ -4578,18 +3521,18 @@
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>MH005
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
@@ -4603,4 +3546,719 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>WEEK 7 TIMETABLE (24/08/2026 - 30/08/2026)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Monday
+24/08</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Tuesday
+25/08</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Wednesday
+26/08</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Thursday
+27/08</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Friday
+28/08</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Saturday
+29/08</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Sunday
+30/08</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Theory)
+Room: A101
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="9" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>WEEK 8 TIMETABLE (31/08/2026 - 06/09/2026)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Monday
+31/08</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Tuesday
+01/09</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Wednesday
+02/09</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Thursday
+03/09</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Friday
+04/09</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Saturday
+05/09</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Sunday
+06/09</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Theory)
+Room: A101
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="9" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>WEEK 9 TIMETABLE (07/09/2026 - 13/09/2026)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Monday
+07/09</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Tuesday
+08/09</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Wednesday
+09/09</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Thursday
+10/09</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Friday
+11/09</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Saturday
+12/09</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Sunday
+13/09</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH004
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH014
+(Theory)
+Room: A101
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH008
+(Theory)
+Room: A102
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>